--- a/sample_file.xlsx
+++ b/sample_file.xlsx
@@ -423,22 +423,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
